--- a/2018Q2/paper/imp_feature.xlsx
+++ b/2018Q2/paper/imp_feature.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24855" windowHeight="10260" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="15495"/>
   </bookViews>
   <sheets>
     <sheet name="imp" sheetId="1" r:id="rId1"/>
@@ -1203,12 +1203,463 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>特征重要性排序</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>imp!$A$107:$A$136</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>createdate_version_ratio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>pdfid0_mismatch</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>pdfid1_mismatch</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>count_page</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>len_obj_min</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>count_startxref</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>producer_num</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>len_stream_max</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>pdfid1_len</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>producer_uc</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>pdfid0_num</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>len_obj_avg</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>len_stream_avg</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>len_obj_max</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>producer_mismatch</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>producer_lc</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>pdfid0_len</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>count_js</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>count_endstream</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>count_stream</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>count_box_other</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>producer_dot</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>pdfid1_num</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>producer_len</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>producer_oth</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>count_endobj</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>count_obj</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>size</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>count_javascript</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>count_font</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>imp!$B$107:$B$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>5.6809410000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0435899999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6173029999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1057130000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1784289999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.2425010000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1487610000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3086014E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5948857E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6284363E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6363327E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6931043E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7994394E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8316734000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8667957999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9059550000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9087400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0743452999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.0199918999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.6112735999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.6859911000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.7493466000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.9755525999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.8369598999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.0540079000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.9953543999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.9801064999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.9580861000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.7662329999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.10877160600000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="236912680"/>
+        <c:axId val="346959952"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="236912680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="346959952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="346959952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="236912680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t>特征类型占比</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1480,7 +1931,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1587,8 +2037,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1645,7 +2135,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1696,13 +2186,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1713,19 +2196,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -1763,7 +2239,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -2106,7 +2582,561 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2447924</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2406,8 +3436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A122" sqref="A122"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="B136" sqref="A107:B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2417,7 +3447,7 @@
     <col min="7" max="7" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2425,549 +3455,540 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>112</v>
       </c>
       <c r="B2">
-        <v>0.10877160600000001</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>113</v>
       </c>
       <c r="B3">
-        <v>8.7662329999999997E-2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="B4">
-        <v>7.9580861000000003E-2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="B5">
-        <v>6.9801064999999995E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>116</v>
       </c>
       <c r="B6">
-        <v>5.9953543999999998E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="B7">
-        <v>5.0540079000000002E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="B8">
-        <v>4.8369598999999999E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="B9">
-        <v>3.9755525999999999E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="B10">
-        <v>3.7493466000000003E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="B11">
-        <v>3.6859911000000002E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="B12">
-        <v>3.6112735999999999E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="B13">
-        <v>3.0199918999999999E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="B14">
-        <v>2.0743452999999999E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="B15">
-        <v>1.9087400000000001E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="B16">
-        <v>1.9059550000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="B17">
-        <v>1.8667957999999998E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="B18">
-        <v>1.8316734000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="B19">
-        <v>1.7994394E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="B20">
-        <v>1.6931043E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="B21">
-        <v>1.6363327E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="B22">
-        <v>1.6284363E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="B23">
-        <v>1.5948857E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="B24">
-        <v>1.3086014E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="B25">
-        <v>1.1487610000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="B26">
-        <v>9.2425010000000002E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="B27">
-        <v>8.1784289999999992E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="B28">
-        <v>8.1057130000000005E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="B29">
-        <v>7.6173029999999997E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30">
-        <v>6.0435899999999997E-3</v>
+        <v>111</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3.9199999999999997E-6</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31">
-        <v>5.6809410000000001E-3</v>
+        <v>110</v>
+      </c>
+      <c r="B31" s="1">
+        <v>5.2100000000000001E-6</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32">
-        <v>5.6032490000000003E-3</v>
+        <v>109</v>
+      </c>
+      <c r="B32" s="1">
+        <v>6.2299999999999996E-6</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33">
-        <v>4.4284800000000003E-3</v>
+        <v>108</v>
+      </c>
+      <c r="B33" s="1">
+        <v>7.5399999999999998E-6</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34">
-        <v>4.3728380000000004E-3</v>
+        <v>107</v>
+      </c>
+      <c r="B34" s="1">
+        <v>7.6000000000000001E-6</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35">
-        <v>3.6012610000000001E-3</v>
+        <v>106</v>
+      </c>
+      <c r="B35" s="1">
+        <v>8.8999999999999995E-6</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36">
-        <v>3.494376E-3</v>
+        <v>105</v>
+      </c>
+      <c r="B36" s="1">
+        <v>9.2E-6</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37">
-        <v>3.3815529999999998E-3</v>
+        <v>104</v>
+      </c>
+      <c r="B37" s="1">
+        <v>9.7499999999999998E-6</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38">
-        <v>2.3902960000000001E-3</v>
+        <v>103</v>
+      </c>
+      <c r="B38" s="1">
+        <v>9.8300000000000008E-6</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39">
-        <v>2.29138E-3</v>
+        <v>102</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1.0200000000000001E-5</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40">
-        <v>2.2374349999999999E-3</v>
+        <v>101</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1.24E-5</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41">
-        <v>1.802402E-3</v>
+        <v>100</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1.5099999999999999E-5</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42">
-        <v>1.70002E-3</v>
+        <v>99</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2.0599999999999999E-5</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43">
-        <v>1.6277539999999999E-3</v>
+        <v>98</v>
+      </c>
+      <c r="B43" s="1">
+        <v>4.0200000000000001E-5</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44">
-        <v>1.5205710000000001E-3</v>
+        <v>97</v>
+      </c>
+      <c r="B44" s="1">
+        <v>5.0300000000000003E-5</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45">
-        <v>1.473465E-3</v>
+        <v>96</v>
+      </c>
+      <c r="B45" s="1">
+        <v>5.2099999999999999E-5</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46">
-        <v>1.459201E-3</v>
+        <v>95</v>
+      </c>
+      <c r="B46" s="1">
+        <v>6.7399999999999998E-5</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47">
-        <v>1.4088670000000001E-3</v>
+        <v>94</v>
+      </c>
+      <c r="B47" s="1">
+        <v>6.9099999999999999E-5</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48">
-        <v>1.283427E-3</v>
+        <v>93</v>
+      </c>
+      <c r="B48" s="1">
+        <v>8.6500000000000002E-5</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49">
-        <v>1.2686869999999999E-3</v>
+        <v>92</v>
+      </c>
+      <c r="B49" s="1">
+        <v>8.8300000000000005E-5</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="B50">
-        <v>1.171582E-3</v>
+        <v>1.0874699999999999E-4</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="B51">
-        <v>1.1599939999999999E-3</v>
+        <v>1.13665E-4</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="B52">
-        <v>1.010892E-3</v>
+        <v>1.38114E-4</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="B53">
-        <v>9.2287300000000005E-4</v>
+        <v>1.7502899999999999E-4</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="B54">
-        <v>8.9670799999999997E-4</v>
+        <v>1.8659500000000001E-4</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="B55">
-        <v>8.5242100000000002E-4</v>
+        <v>2.0334800000000001E-4</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="B56">
-        <v>7.9145099999999998E-4</v>
+        <v>2.09335E-4</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="B57">
-        <v>7.8874999999999995E-4</v>
+        <v>2.19225E-4</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="B58">
-        <v>7.6758200000000005E-4</v>
+        <v>2.2969099999999999E-4</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B59">
-        <v>7.3599500000000003E-4</v>
+        <v>2.4048099999999999E-4</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="B60">
-        <v>7.3463700000000001E-4</v>
+        <v>2.4827999999999997E-4</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="B61">
-        <v>6.6418100000000002E-4</v>
+        <v>2.5757699999999999E-4</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B62">
-        <v>6.5919299999999998E-4</v>
+        <v>2.9318399999999999E-4</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B63">
-        <v>6.3044700000000002E-4</v>
+        <v>3.0855200000000002E-4</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B64">
-        <v>5.9870099999999999E-4</v>
+        <v>3.1875300000000002E-4</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B65">
-        <v>5.9386499999999995E-4</v>
+        <v>3.7764199999999997E-4</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>5.9122000000000005E-4</v>
+        <v>4.3336500000000001E-4</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>5.9057499999999998E-4</v>
+        <v>4.3440699999999999E-4</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>5.2594499999999999E-4</v>
+        <v>4.5743200000000002E-4</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
@@ -2980,544 +4001,557 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>4.5743200000000002E-4</v>
+        <v>5.2594499999999999E-4</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B71">
-        <v>4.3440699999999999E-4</v>
+        <v>5.9057499999999998E-4</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B72">
-        <v>4.3336500000000001E-4</v>
+        <v>5.9122000000000005E-4</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B73">
-        <v>3.7764199999999997E-4</v>
+        <v>5.9386499999999995E-4</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B74">
-        <v>3.1875300000000002E-4</v>
+        <v>5.9870099999999999E-4</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B75">
-        <v>3.0855200000000002E-4</v>
+        <v>6.3044700000000002E-4</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B76">
-        <v>2.9318399999999999E-4</v>
+        <v>6.5919299999999998E-4</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B77">
-        <v>2.5757699999999999E-4</v>
+        <v>6.6418100000000002E-4</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B78">
-        <v>2.4827999999999997E-4</v>
+        <v>7.3463700000000001E-4</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B79">
-        <v>2.4048099999999999E-4</v>
+        <v>7.3599500000000003E-4</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B80">
-        <v>2.2969099999999999E-4</v>
+        <v>7.6758200000000005E-4</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B81">
-        <v>2.19225E-4</v>
+        <v>7.8874999999999995E-4</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="B82">
-        <v>2.09335E-4</v>
+        <v>7.9145099999999998E-4</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="B83">
-        <v>2.0334800000000001E-4</v>
+        <v>8.5242100000000002E-4</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="B84">
-        <v>1.8659500000000001E-4</v>
+        <v>8.9670799999999997E-4</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="B85">
-        <v>1.7502899999999999E-4</v>
+        <v>9.2287300000000005E-4</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="B86">
-        <v>1.38114E-4</v>
+        <v>1.010892E-3</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="B87">
-        <v>1.13665E-4</v>
+        <v>1.1599939999999999E-3</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="B88">
-        <v>1.0874699999999999E-4</v>
+        <v>1.171582E-3</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>92</v>
-      </c>
-      <c r="B89" s="1">
-        <v>8.8300000000000005E-5</v>
+        <v>52</v>
+      </c>
+      <c r="B89" s="2">
+        <v>1.2686869999999999E-3</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>93</v>
-      </c>
-      <c r="B90" s="1">
-        <v>8.6500000000000002E-5</v>
+        <v>51</v>
+      </c>
+      <c r="B90" s="2">
+        <v>1.283427E-3</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>94</v>
-      </c>
-      <c r="B91" s="1">
-        <v>6.9099999999999999E-5</v>
+        <v>50</v>
+      </c>
+      <c r="B91" s="2">
+        <v>1.4088670000000001E-3</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>95</v>
-      </c>
-      <c r="B92" s="1">
-        <v>6.7399999999999998E-5</v>
+        <v>49</v>
+      </c>
+      <c r="B92" s="2">
+        <v>1.459201E-3</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>96</v>
-      </c>
-      <c r="B93" s="1">
-        <v>5.2099999999999999E-5</v>
+        <v>48</v>
+      </c>
+      <c r="B93" s="2">
+        <v>1.473465E-3</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>97</v>
-      </c>
-      <c r="B94" s="1">
-        <v>5.0300000000000003E-5</v>
+        <v>47</v>
+      </c>
+      <c r="B94" s="2">
+        <v>1.5205710000000001E-3</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>98</v>
-      </c>
-      <c r="B95" s="1">
-        <v>4.0200000000000001E-5</v>
+        <v>46</v>
+      </c>
+      <c r="B95" s="2">
+        <v>1.6277539999999999E-3</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>99</v>
-      </c>
-      <c r="B96" s="1">
-        <v>2.0599999999999999E-5</v>
+        <v>45</v>
+      </c>
+      <c r="B96" s="2">
+        <v>1.70002E-3</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>100</v>
-      </c>
-      <c r="B97" s="1">
-        <v>1.5099999999999999E-5</v>
+        <v>44</v>
+      </c>
+      <c r="B97" s="2">
+        <v>1.802402E-3</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>101</v>
-      </c>
-      <c r="B98" s="1">
-        <v>1.24E-5</v>
+        <v>43</v>
+      </c>
+      <c r="B98" s="2">
+        <v>2.2374349999999999E-3</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>102</v>
-      </c>
-      <c r="B99" s="1">
-        <v>1.0200000000000001E-5</v>
+        <v>42</v>
+      </c>
+      <c r="B99" s="2">
+        <v>2.29138E-3</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>103</v>
-      </c>
-      <c r="B100" s="1">
-        <v>9.8300000000000008E-6</v>
+        <v>41</v>
+      </c>
+      <c r="B100" s="2">
+        <v>2.3902960000000001E-3</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>104</v>
-      </c>
-      <c r="B101" s="1">
-        <v>9.7499999999999998E-6</v>
+        <v>40</v>
+      </c>
+      <c r="B101" s="2">
+        <v>3.3815529999999998E-3</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>105</v>
-      </c>
-      <c r="B102" s="1">
-        <v>9.2E-6</v>
+        <v>39</v>
+      </c>
+      <c r="B102" s="2">
+        <v>3.494376E-3</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>106</v>
-      </c>
-      <c r="B103" s="1">
-        <v>8.8999999999999995E-6</v>
+        <v>38</v>
+      </c>
+      <c r="B103" s="2">
+        <v>3.6012610000000001E-3</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>107</v>
-      </c>
-      <c r="B104" s="1">
-        <v>7.6000000000000001E-6</v>
+        <v>37</v>
+      </c>
+      <c r="B104" s="2">
+        <v>4.3728380000000004E-3</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>108</v>
-      </c>
-      <c r="B105" s="1">
-        <v>7.5399999999999998E-6</v>
+        <v>36</v>
+      </c>
+      <c r="B105" s="2">
+        <v>4.4284800000000003E-3</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>109</v>
-      </c>
-      <c r="B106" s="1">
-        <v>6.2299999999999996E-6</v>
+        <v>35</v>
+      </c>
+      <c r="B106" s="2">
+        <v>5.6032490000000003E-3</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>110</v>
-      </c>
-      <c r="B107" s="1">
-        <v>5.2100000000000001E-6</v>
+        <v>34</v>
+      </c>
+      <c r="B107" s="2">
+        <v>5.6809410000000001E-3</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>111</v>
-      </c>
-      <c r="B108" s="1">
-        <v>3.9199999999999997E-6</v>
+        <v>33</v>
+      </c>
+      <c r="B108" s="2">
+        <v>6.0435899999999997E-3</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>7.6173029999999997E-3</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>8.1057130000000005E-3</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>8.1784289999999992E-3</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>9.2425010000000002E-3</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>1.1487610000000001E-2</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>1.3086014E-2</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>1.5948857E-2</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>1.6284363E-2</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>1.6363327E-2</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>1.6931043E-2</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>1.7994394E-2</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>1.8316734000000001E-2</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>1.8667957999999998E-2</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>1.9059550000000001E-2</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>1.9087400000000001E-2</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>2.0743452999999999E-2</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>3.0199918999999999E-2</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>3.6112735999999999E-2</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>3.6859911000000002E-2</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="B128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+        <v>3.7493466000000003E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="B129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+        <v>3.9755525999999999E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="B130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+        <v>4.8369598999999999E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="B131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+        <v>5.0540079000000002E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>135</v>
+        <v>9</v>
       </c>
       <c r="B132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+        <v>5.9953543999999998E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>136</v>
+        <v>8</v>
       </c>
       <c r="B133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+        <v>6.9801064999999995E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>137</v>
+        <v>6</v>
       </c>
       <c r="B134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+        <v>7.9580861000000003E-2</v>
+      </c>
+      <c r="C134" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>138</v>
+        <v>4</v>
       </c>
       <c r="B135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+        <v>8.7662329999999997E-2</v>
+      </c>
+      <c r="C135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>139</v>
+        <v>2</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>0.10877160600000001</v>
+      </c>
+      <c r="C136" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C136">
+    <sortCondition ref="B1"/>
+  </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3525,7 +4559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:K2"/>
     </sheetView>
   </sheetViews>
